--- a/#1_auth-Chrome.xlsx
+++ b/#1_auth-Chrome.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yandex.Disk\ilhom.rozumbetov\Yandex.Disk\YandexDisk\QA Tester\rozumbetov_qa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="7770" tabRatio="938" activeTab="2"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>MANUAL TESTING TEST CASE TEMPLATE</t>
   </si>
@@ -165,11 +170,14 @@
   <si>
     <t>Авторизация пользователя на веб-сайте drive2.ru в браузере  Google Chrome на мобильном телефоне с операционной системой Android 10</t>
   </si>
+  <si>
+    <t>пройден</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -799,74 +807,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9385,8 +9325,8 @@
   </sheetPr>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9527,7 +9467,9 @@
       <c r="E11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
@@ -9541,7 +9483,9 @@
       <c r="E12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
@@ -9555,7 +9499,9 @@
       <c r="E13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -9569,7 +9515,9 @@
       <c r="E14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
@@ -9583,7 +9531,9 @@
       <c r="E15" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
